--- a/Daobiao/xlsx/Buff.xlsx
+++ b/Daobiao/xlsx/Buff.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -195,51 +195,93 @@
     <t>float64范围</t>
   </si>
   <si>
-    <t>Avatar的ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scale</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int64</t>
+    <t>BuffName</t>
+  </si>
+  <si>
+    <t>BuffEffectType</t>
+  </si>
+  <si>
+    <t>执行时重复类型</t>
+  </si>
+  <si>
+    <t>BuffRepeatType</t>
+  </si>
+  <si>
+    <t>叠加类型</t>
+  </si>
+  <si>
+    <t>效果类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ddd</t>
+    <t>名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ccc</t>
+    <t>BuffOverlapType</t>
+  </si>
+  <si>
+    <t>消除类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffShutDownType</t>
+  </si>
+  <si>
+    <t>最大数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLimit</t>
+  </si>
+  <si>
+    <t>总共持续时间</t>
+  </si>
+  <si>
+    <t>TotalFrame</t>
+  </si>
+  <si>
+    <t>调用间隔时间</t>
+  </si>
+  <si>
+    <t>CallIntervalFrame</t>
+  </si>
+  <si>
+    <t>执行数值</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>回复血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>wind</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +316,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +341,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,14 +399,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,89 +709,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="12.625" style="3"/>
-    <col min="4" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
+      <c r="C1" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>36</v>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="3">
-        <v>911</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>330</v>
+      </c>
+      <c r="I4" s="3">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="3">
-        <v>912</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>99</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +954,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
